--- a/Documentation/Management/Communications/Meetings/Minutes of Meeting (Quality Audit) - 2011-08-13.xlsx
+++ b/Documentation/Management/Communications/Meetings/Minutes of Meeting (Quality Audit) - 2011-08-13.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19155" windowHeight="8475" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="19155" windowHeight="8475" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="119">
   <si>
     <t>FYP Project Meeting Minutes</t>
   </si>
@@ -356,6 +356,30 @@
   </si>
   <si>
     <t>Pending</t>
+  </si>
+  <si>
+    <t>Minutes for quality audit have been placed in a separate document</t>
+  </si>
+  <si>
+    <t>All previous minutes have been reviewed to ensure status is marked as completed when task is done</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Template replaced</t>
+  </si>
+  <si>
+    <t>System test plan completed</t>
+  </si>
+  <si>
+    <t>All contents are updated</t>
+  </si>
+  <si>
+    <t>UCRR has been signed off</t>
+  </si>
+  <si>
+    <t>A spreadsheet was set up to record the bugs</t>
   </si>
 </sst>
 </file>
@@ -405,7 +429,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -413,11 +437,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -430,18 +469,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -450,6 +482,18 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -847,7 +891,7 @@
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
-      <c r="C18" s="8"/>
+      <c r="C18" s="7"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
@@ -860,10 +904,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -878,293 +922,258 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
+    <row r="2" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+      <c r="E2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="36" x14ac:dyDescent="0.2">
+      <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>17</v>
+      <c r="E3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="36" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+      <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="D4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A5" s="12">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="12">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="12"/>
+    </row>
+    <row r="7" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A7" s="12">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
+      <c r="F7" s="12"/>
+    </row>
+    <row r="8" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+      <c r="A8" s="12">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8" s="12"/>
+    </row>
+    <row r="9" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A9" s="12">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="36" x14ac:dyDescent="0.2">
+      <c r="A10" s="12">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="36" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>17</v>
+      <c r="E10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
+      <c r="A11" s="12">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>17</v>
+      <c r="D11" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="36" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
+      <c r="A12" s="12">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>17</v>
+      <c r="E12" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
+      <c r="A13" s="12">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C15" s="7"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C16" s="7"/>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C17" s="7"/>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C18" s="7"/>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C19" s="7"/>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C20" s="7"/>
-      <c r="F20" s="7"/>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C21" s="7"/>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C22" s="7"/>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C23" s="7"/>
+      <c r="D13" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>115</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1176,14 +1185,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.85546875" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="115.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
@@ -1194,7 +1203,7 @@
       <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C1" s="5" t="s">
@@ -1214,19 +1223,19 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="11" t="s">
+      <c r="D2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1234,19 +1243,19 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="11" t="s">
+      <c r="E3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1254,19 +1263,19 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="11" t="s">
+      <c r="D4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1274,19 +1283,19 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="11" t="s">
+      <c r="E5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1294,19 +1303,19 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="11" t="s">
+      <c r="E6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1314,19 +1323,19 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="11" t="s">
+      <c r="D7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1334,19 +1343,19 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="11" t="s">
+      <c r="E8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1354,19 +1363,19 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="11" t="s">
+      <c r="D9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1374,19 +1383,19 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="11" t="s">
+      <c r="E10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1394,19 +1403,19 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="11" t="s">
+      <c r="E11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1414,19 +1423,19 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="11" t="s">
+      <c r="D12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1434,19 +1443,19 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="11" t="s">
+      <c r="E13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1454,19 +1463,19 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="11" t="s">
+      <c r="E14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1474,19 +1483,19 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="11" t="s">
+      <c r="D15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1494,19 +1503,19 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="11" t="s">
+      <c r="D16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1514,19 +1523,19 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="11" t="s">
+      <c r="D17" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1534,19 +1543,19 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="11" t="s">
+      <c r="E18" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1554,19 +1563,19 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D19" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="11" t="s">
+      <c r="D19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="8" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1574,19 +1583,19 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="11" t="s">
+      <c r="D20" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="8" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1594,19 +1603,19 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="11" t="s">
+      <c r="E21" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1614,19 +1623,19 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="11" t="s">
+      <c r="E22" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="8" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1634,19 +1643,19 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="11" t="s">
+      <c r="E23" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="8" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1654,19 +1663,19 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D24" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="11" t="s">
+      <c r="D24" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="8" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1674,33 +1683,33 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D25" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F25" s="11" t="s">
+      <c r="D25" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="8" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C26" s="11"/>
+      <c r="C26" s="8"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C27" s="11"/>
+      <c r="C27" s="8"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C28" s="11"/>
+      <c r="C28" s="8"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C29" s="11"/>
+      <c r="C29" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
